--- a/dev_doc/Process/第一次截图/截图覆盖情况.xlsx
+++ b/dev_doc/Process/第一次截图/截图覆盖情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/dev_doc/Process/第一次截图/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BA62791-1327-254F-AEF4-977523FAEBE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35E62B3B-4AE1-A448-99A0-23714537926F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -1733,10 +1733,10 @@
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1786,10 +1786,10 @@
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
